--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124071a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124071a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>coeficientes de variação das estimativas de pessoas de 10 anos ou mais de idade que não procuraram a polícia em decorrência do último roubo que foram vítimas, no período de referência de 365 dias (%)</t>
   </si>
@@ -40,16 +40,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -500,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,28 +559,46 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>1.80411186112583</v>
+      </c>
+      <c r="C5">
+        <v>4.741268856363217</v>
+      </c>
+      <c r="D5">
+        <v>3.164731886967364</v>
+      </c>
+      <c r="E5">
+        <v>2.768121355498793</v>
+      </c>
+      <c r="F5">
+        <v>3.430020035452435</v>
+      </c>
+      <c r="G5">
+        <v>5.044143290996296</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1.80411186112583</v>
+        <v>12.63915231019145</v>
       </c>
       <c r="C6">
-        <v>4.741268856363217</v>
+        <v>17.32974456560737</v>
       </c>
       <c r="D6">
-        <v>3.164731886967364</v>
+        <v>19.23396145376619</v>
       </c>
       <c r="E6">
-        <v>2.768121355498793</v>
+        <v>19.7521869604286</v>
       </c>
       <c r="F6">
-        <v>3.430020035452435</v>
+        <v>16.10446883076709</v>
       </c>
       <c r="G6">
-        <v>5.044143290996296</v>
+        <v>20.68554224970624</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -594,50 +606,68 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>12.63915231019145</v>
+        <v>4.58872037540183</v>
       </c>
       <c r="C7">
-        <v>17.32974456560737</v>
+        <v>12.31549809061901</v>
       </c>
       <c r="D7">
-        <v>19.23396145376619</v>
+        <v>7.466683419426287</v>
       </c>
       <c r="E7">
-        <v>19.7521869604286</v>
+        <v>5.837151998625212</v>
       </c>
       <c r="F7">
-        <v>16.10446883076709</v>
+        <v>7.968987052148628</v>
       </c>
       <c r="G7">
-        <v>20.68554224970624</v>
+        <v>12.42215909373333</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>15.36707615761858</v>
+      </c>
+      <c r="C8">
+        <v>44.52289401405638</v>
+      </c>
+      <c r="D8">
+        <v>26.04380640986022</v>
+      </c>
+      <c r="E8">
+        <v>22.26784835296817</v>
+      </c>
+      <c r="F8">
+        <v>32.49015623134409</v>
+      </c>
+      <c r="G8">
+        <v>43.29315529785056</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>4.58872037540183</v>
+        <v>17.39332813822012</v>
       </c>
       <c r="C9">
-        <v>12.31549809061901</v>
+        <v>32.11983680924602</v>
       </c>
       <c r="D9">
-        <v>7.466683419426287</v>
+        <v>42.9020683668347</v>
       </c>
       <c r="E9">
-        <v>5.837151998625212</v>
+        <v>26.18413779289126</v>
       </c>
       <c r="F9">
-        <v>7.968987052148628</v>
+        <v>42.71646257681163</v>
       </c>
       <c r="G9">
-        <v>12.42215909373333</v>
+        <v>44.85352373254752</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -645,22 +675,22 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>15.36707615761858</v>
+        <v>10.35494060717086</v>
       </c>
       <c r="C10">
-        <v>44.52289401405638</v>
+        <v>24.76275850215636</v>
       </c>
       <c r="D10">
-        <v>26.04380640986022</v>
+        <v>20.22570926570884</v>
       </c>
       <c r="E10">
-        <v>22.26784835296817</v>
+        <v>14.28077403332942</v>
       </c>
       <c r="F10">
-        <v>32.49015623134409</v>
+        <v>22.93552889048729</v>
       </c>
       <c r="G10">
-        <v>43.29315529785056</v>
+        <v>53.36748598846513</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -668,22 +698,22 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>17.39332813822012</v>
+        <v>21.77777842749395</v>
       </c>
       <c r="C11">
-        <v>32.11983680924602</v>
+        <v>38.4565815113075</v>
       </c>
       <c r="D11">
-        <v>42.9020683668347</v>
+        <v>31.79512753845448</v>
       </c>
       <c r="E11">
-        <v>26.18413779289126</v>
+        <v>41.23873559600382</v>
       </c>
       <c r="F11">
-        <v>42.71646257681163</v>
+        <v>55.27414737923338</v>
       </c>
       <c r="G11">
-        <v>44.85352373254752</v>
+        <v>69.05885414336417</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -691,22 +721,22 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>10.35494060717086</v>
+        <v>5.893250297107378</v>
       </c>
       <c r="C12">
-        <v>24.76275850215636</v>
+        <v>19.79437106935008</v>
       </c>
       <c r="D12">
-        <v>20.22570926570884</v>
+        <v>9.143407154367903</v>
       </c>
       <c r="E12">
-        <v>14.28077403332942</v>
+        <v>7.081020410290878</v>
       </c>
       <c r="F12">
-        <v>22.93552889048729</v>
+        <v>9.503078506831258</v>
       </c>
       <c r="G12">
-        <v>53.36748598846513</v>
+        <v>14.57802362219008</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -714,22 +744,22 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>21.77777842749395</v>
+        <v>20.75024508697994</v>
       </c>
       <c r="C13">
-        <v>38.4565815113075</v>
+        <v>39.04798253849045</v>
       </c>
       <c r="D13">
-        <v>31.79512753845448</v>
+        <v>32.65600719904101</v>
       </c>
       <c r="E13">
-        <v>41.23873559600382</v>
+        <v>26.08540666453895</v>
       </c>
       <c r="F13">
-        <v>55.27414737923338</v>
+        <v>38.12885502432067</v>
       </c>
       <c r="G13">
-        <v>69.05885414336417</v>
+        <v>69.93517257045065</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -737,22 +767,22 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>5.893250297107378</v>
+        <v>17.33494245172924</v>
       </c>
       <c r="C14">
-        <v>19.79437106935008</v>
+        <v>46.32308765309201</v>
       </c>
       <c r="D14">
-        <v>9.143407154367903</v>
+        <v>37.14703410963326</v>
       </c>
       <c r="E14">
-        <v>7.081020410290878</v>
+        <v>25.47005530285724</v>
       </c>
       <c r="F14">
-        <v>9.503078506831258</v>
+        <v>27.36586855502969</v>
       </c>
       <c r="G14">
-        <v>14.57802362219008</v>
+        <v>55.16713912309984</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -760,22 +790,22 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>20.75024508697994</v>
+        <v>3.073498965376521</v>
       </c>
       <c r="C15">
-        <v>39.04798253849045</v>
+        <v>8.042407334027956</v>
       </c>
       <c r="D15">
-        <v>32.65600719904101</v>
+        <v>4.954055021279443</v>
       </c>
       <c r="E15">
-        <v>26.08540666453895</v>
+        <v>4.520220511684867</v>
       </c>
       <c r="F15">
-        <v>38.12885502432067</v>
+        <v>4.781006130391011</v>
       </c>
       <c r="G15">
-        <v>69.93517257045065</v>
+        <v>7.44760176422132</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -783,22 +813,22 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>17.33494245172924</v>
+        <v>18.88207297872954</v>
       </c>
       <c r="C16">
-        <v>46.32308765309201</v>
+        <v>23.61529187401995</v>
       </c>
       <c r="D16">
-        <v>37.14703410963326</v>
+        <v>29.77300174478928</v>
       </c>
       <c r="E16">
-        <v>25.47005530285724</v>
+        <v>27.6904174453972</v>
       </c>
       <c r="F16">
-        <v>27.36586855502969</v>
+        <v>25.54993564185843</v>
       </c>
       <c r="G16">
-        <v>55.16713912309984</v>
+        <v>31.74557679267603</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -806,22 +836,22 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>3.073498965376521</v>
+        <v>13.36344665358925</v>
       </c>
       <c r="C17">
-        <v>8.042407334027956</v>
+        <v>62.24764422135917</v>
       </c>
       <c r="D17">
-        <v>4.954055021279443</v>
+        <v>30.16305495934639</v>
       </c>
       <c r="E17">
-        <v>4.520220511684867</v>
+        <v>17.65196082479753</v>
       </c>
       <c r="F17">
-        <v>4.781006130391011</v>
+        <v>18.95766426367972</v>
       </c>
       <c r="G17">
-        <v>7.44760176422132</v>
+        <v>37.1267017999869</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -829,22 +859,22 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>18.88207297872954</v>
+        <v>4.362749701220702</v>
       </c>
       <c r="C18">
-        <v>23.61529187401995</v>
+        <v>14.07163194765852</v>
       </c>
       <c r="D18">
-        <v>29.77300174478928</v>
+        <v>8.426094909594619</v>
       </c>
       <c r="E18">
-        <v>27.6904174453972</v>
+        <v>6.42404462388028</v>
       </c>
       <c r="F18">
-        <v>25.54993564185843</v>
+        <v>10.72381482883431</v>
       </c>
       <c r="G18">
-        <v>31.74557679267603</v>
+        <v>17.2809018013338</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -852,22 +882,22 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>13.36344665358925</v>
+        <v>12.09554151232512</v>
       </c>
       <c r="C19">
-        <v>62.24764422135917</v>
+        <v>32.46054011329042</v>
       </c>
       <c r="D19">
-        <v>30.16305495934639</v>
+        <v>17.8757952350719</v>
       </c>
       <c r="E19">
-        <v>17.65196082479753</v>
+        <v>13.87275068448286</v>
       </c>
       <c r="F19">
-        <v>18.95766426367972</v>
+        <v>25.79649021898932</v>
       </c>
       <c r="G19">
-        <v>37.1267017999869</v>
+        <v>35.64292536922265</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -875,22 +905,22 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>4.362749701220702</v>
+        <v>10.92645122858714</v>
       </c>
       <c r="C20">
-        <v>14.07163194765852</v>
+        <v>35.20857129409269</v>
       </c>
       <c r="D20">
-        <v>8.426094909594619</v>
+        <v>16.28713435005442</v>
       </c>
       <c r="E20">
-        <v>6.42404462388028</v>
+        <v>16.05724008359715</v>
       </c>
       <c r="F20">
-        <v>10.72381482883431</v>
+        <v>20.65375596358525</v>
       </c>
       <c r="G20">
-        <v>17.2809018013338</v>
+        <v>25.7155587242636</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -898,22 +928,22 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>12.09554151232512</v>
+        <v>5.183567771367188</v>
       </c>
       <c r="C21">
-        <v>32.46054011329042</v>
+        <v>16.28981885007707</v>
       </c>
       <c r="D21">
-        <v>17.8757952350719</v>
+        <v>9.985176060138309</v>
       </c>
       <c r="E21">
-        <v>13.87275068448286</v>
+        <v>7.183636534653168</v>
       </c>
       <c r="F21">
-        <v>25.79649021898932</v>
+        <v>8.901727810663507</v>
       </c>
       <c r="G21">
-        <v>35.64292536922265</v>
+        <v>17.00806612513086</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -921,22 +951,22 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>10.92645122858714</v>
+        <v>9.855288364168503</v>
       </c>
       <c r="C22">
-        <v>35.20857129409269</v>
+        <v>43.65971022246798</v>
       </c>
       <c r="D22">
-        <v>16.28713435005442</v>
+        <v>28.564520313244</v>
       </c>
       <c r="E22">
-        <v>16.05724008359715</v>
+        <v>17.78192287353462</v>
       </c>
       <c r="F22">
-        <v>20.65375596358525</v>
+        <v>20.99182155118668</v>
       </c>
       <c r="G22">
-        <v>25.7155587242636</v>
+        <v>42.24216842588721</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -944,22 +974,22 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>5.183567771367188</v>
+        <v>9.03307920295992</v>
       </c>
       <c r="C23">
-        <v>16.28981885007707</v>
+        <v>25.38120585353628</v>
       </c>
       <c r="D23">
-        <v>9.985176060138309</v>
+        <v>19.27088225825452</v>
       </c>
       <c r="E23">
-        <v>7.183636534653168</v>
+        <v>15.78048016331587</v>
       </c>
       <c r="F23">
-        <v>8.901727810663507</v>
+        <v>24.18730979731365</v>
       </c>
       <c r="G23">
-        <v>17.00806612513086</v>
+        <v>37.07830363966006</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -967,22 +997,22 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>9.855288364168503</v>
+        <v>5.088505615369381</v>
       </c>
       <c r="C24">
-        <v>43.65971022246798</v>
+        <v>13.17372824215706</v>
       </c>
       <c r="D24">
-        <v>28.564520313244</v>
+        <v>7.973639681693977</v>
       </c>
       <c r="E24">
-        <v>17.78192287353462</v>
+        <v>8.13056832202445</v>
       </c>
       <c r="F24">
-        <v>20.99182155118668</v>
+        <v>8.422795290829395</v>
       </c>
       <c r="G24">
-        <v>42.24216842588721</v>
+        <v>12.26736133418734</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -990,22 +1020,22 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>9.03307920295992</v>
+        <v>3.092261753092541</v>
       </c>
       <c r="C25">
-        <v>25.38120585353628</v>
+        <v>8.717110600818373</v>
       </c>
       <c r="D25">
-        <v>19.27088225825452</v>
+        <v>6.071459659971119</v>
       </c>
       <c r="E25">
-        <v>15.78048016331587</v>
+        <v>5.06640625760728</v>
       </c>
       <c r="F25">
-        <v>24.18730979731365</v>
+        <v>6.334881996565771</v>
       </c>
       <c r="G25">
-        <v>37.07830363966006</v>
+        <v>8.924585196799294</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1013,22 +1043,22 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>5.088505615369381</v>
+        <v>5.947181306889826</v>
       </c>
       <c r="C26">
-        <v>13.17372824215706</v>
+        <v>16.54893713231044</v>
       </c>
       <c r="D26">
-        <v>7.973639681693977</v>
+        <v>11.08863501524621</v>
       </c>
       <c r="E26">
-        <v>8.13056832202445</v>
+        <v>11.42632757738921</v>
       </c>
       <c r="F26">
-        <v>8.422795290829395</v>
+        <v>14.20699920260319</v>
       </c>
       <c r="G26">
-        <v>12.26736133418734</v>
+        <v>15.13597354267674</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1036,22 +1066,22 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>3.092261753092541</v>
+        <v>10.48196026989184</v>
       </c>
       <c r="C27">
-        <v>8.717110600818373</v>
+        <v>45.88089865122591</v>
       </c>
       <c r="D27">
-        <v>6.071459659971119</v>
+        <v>18.50124154471769</v>
       </c>
       <c r="E27">
-        <v>5.06640625760728</v>
+        <v>16.72439185670299</v>
       </c>
       <c r="F27">
-        <v>6.334881996565771</v>
+        <v>20.39193338246675</v>
       </c>
       <c r="G27">
-        <v>8.924585196799294</v>
+        <v>33.28823266091083</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1059,22 +1089,22 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>5.947181306889826</v>
+        <v>5.878801397382057</v>
       </c>
       <c r="C28">
-        <v>16.54893713231044</v>
+        <v>14.18123520899117</v>
       </c>
       <c r="D28">
-        <v>11.08863501524621</v>
+        <v>12.03298902379359</v>
       </c>
       <c r="E28">
-        <v>11.42632757738921</v>
+        <v>9.185887279756324</v>
       </c>
       <c r="F28">
-        <v>14.20699920260319</v>
+        <v>11.29855967813727</v>
       </c>
       <c r="G28">
-        <v>15.13597354267674</v>
+        <v>18.32899731541375</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1082,22 +1112,22 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>10.48196026989184</v>
+        <v>4.665555674002844</v>
       </c>
       <c r="C29">
-        <v>45.88089865122591</v>
+        <v>13.70167580965111</v>
       </c>
       <c r="D29">
-        <v>18.50124154471769</v>
+        <v>9.358410925666776</v>
       </c>
       <c r="E29">
-        <v>16.72439185670299</v>
+        <v>7.580014719809047</v>
       </c>
       <c r="F29">
-        <v>20.39193338246675</v>
+        <v>9.621828863450441</v>
       </c>
       <c r="G29">
-        <v>33.28823266091083</v>
+        <v>12.94339825179091</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1105,22 +1135,22 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>5.878801397382057</v>
+        <v>4.837086596489766</v>
       </c>
       <c r="C30">
-        <v>14.18123520899117</v>
+        <v>11.22490144717493</v>
       </c>
       <c r="D30">
-        <v>12.03298902379359</v>
+        <v>8.842411748732173</v>
       </c>
       <c r="E30">
-        <v>9.185887279756324</v>
+        <v>8.495374011124056</v>
       </c>
       <c r="F30">
-        <v>11.29855967813727</v>
+        <v>11.13251284225955</v>
       </c>
       <c r="G30">
-        <v>18.32899731541375</v>
+        <v>11.79073341821209</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1128,22 +1158,22 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>4.665555674002844</v>
+        <v>6.74362055299521</v>
       </c>
       <c r="C31">
-        <v>13.70167580965111</v>
+        <v>17.26470842680076</v>
       </c>
       <c r="D31">
-        <v>9.358410925666776</v>
+        <v>12.23725873114697</v>
       </c>
       <c r="E31">
-        <v>7.580014719809047</v>
+        <v>11.75566924310252</v>
       </c>
       <c r="F31">
-        <v>9.621828863450441</v>
+        <v>16.39159536823287</v>
       </c>
       <c r="G31">
-        <v>12.94339825179091</v>
+        <v>16.76897569945623</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1151,22 +1181,22 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>4.837086596489766</v>
+        <v>23.35112702444026</v>
       </c>
       <c r="C32">
-        <v>11.22490144717493</v>
+        <v>49.34192058798983</v>
       </c>
       <c r="D32">
-        <v>8.842411748732173</v>
+        <v>35.87911150323483</v>
       </c>
       <c r="E32">
-        <v>8.495374011124056</v>
+        <v>36.1721696588592</v>
       </c>
       <c r="F32">
-        <v>11.13251284225955</v>
+        <v>43.71494885729464</v>
       </c>
       <c r="G32">
-        <v>11.79073341821209</v>
+        <v>38.12619769298008</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1174,22 +1204,22 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>6.74362055299521</v>
+        <v>6.697336407106582</v>
       </c>
       <c r="C33">
-        <v>17.26470842680076</v>
+        <v>15.00151555537889</v>
       </c>
       <c r="D33">
-        <v>12.23725873114697</v>
+        <v>12.90698937543691</v>
       </c>
       <c r="E33">
-        <v>11.75566924310252</v>
+        <v>12.14460663086187</v>
       </c>
       <c r="F33">
-        <v>16.39159536823287</v>
+        <v>15.75675369639753</v>
       </c>
       <c r="G33">
-        <v>16.76897569945623</v>
+        <v>18.34399562979184</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1197,22 +1227,22 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>23.35112702444026</v>
+        <v>5.241380565412837</v>
       </c>
       <c r="C34">
-        <v>49.34192058798983</v>
+        <v>13.21347567469086</v>
       </c>
       <c r="D34">
-        <v>35.87911150323483</v>
+        <v>9.103551053254401</v>
       </c>
       <c r="E34">
-        <v>36.1721696588592</v>
+        <v>7.968372576538331</v>
       </c>
       <c r="F34">
-        <v>43.71494885729464</v>
+        <v>11.07894339978236</v>
       </c>
       <c r="G34">
-        <v>38.12619769298008</v>
+        <v>14.36080161197604</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1220,22 +1250,22 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>6.697336407106582</v>
+        <v>17.88449137364599</v>
       </c>
       <c r="C35">
-        <v>15.00151555537889</v>
+        <v>38.80637439797113</v>
       </c>
       <c r="D35">
-        <v>12.90698937543691</v>
+        <v>25.19723277674526</v>
       </c>
       <c r="E35">
-        <v>12.14460663086187</v>
+        <v>28.28594528155326</v>
       </c>
       <c r="F35">
-        <v>15.75675369639753</v>
+        <v>37.7170852532653</v>
       </c>
       <c r="G35">
-        <v>18.34399562979184</v>
+        <v>33.33889547174701</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1243,22 +1273,22 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>5.241380565412837</v>
+        <v>13.08536458312203</v>
       </c>
       <c r="C36">
-        <v>13.21347567469086</v>
+        <v>37.86752930001082</v>
       </c>
       <c r="D36">
-        <v>9.103551053254401</v>
+        <v>22.2397120525391</v>
       </c>
       <c r="E36">
-        <v>7.968372576538331</v>
+        <v>18.31708154903267</v>
       </c>
       <c r="F36">
-        <v>11.07894339978236</v>
+        <v>28.63081678265911</v>
       </c>
       <c r="G36">
-        <v>14.36080161197604</v>
+        <v>35.61061595963406</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1266,67 +1296,21 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>17.88449137364599</v>
+        <v>8.371671345009911</v>
       </c>
       <c r="C37">
-        <v>38.80637439797113</v>
+        <v>18.74022587589659</v>
       </c>
       <c r="D37">
-        <v>25.19723277674526</v>
+        <v>15.67561504442545</v>
       </c>
       <c r="E37">
-        <v>28.28594528155326</v>
+        <v>13.75409291039919</v>
       </c>
       <c r="F37">
-        <v>37.7170852532653</v>
+        <v>17.35686430276727</v>
       </c>
       <c r="G37">
-        <v>33.33889547174701</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>13.08536458312203</v>
-      </c>
-      <c r="C38">
-        <v>37.86752930001082</v>
-      </c>
-      <c r="D38">
-        <v>22.2397120525391</v>
-      </c>
-      <c r="E38">
-        <v>18.31708154903267</v>
-      </c>
-      <c r="F38">
-        <v>28.63081678265911</v>
-      </c>
-      <c r="G38">
-        <v>35.61061595963406</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39">
-        <v>8.371671345009911</v>
-      </c>
-      <c r="C39">
-        <v>18.74022587589659</v>
-      </c>
-      <c r="D39">
-        <v>15.67561504442545</v>
-      </c>
-      <c r="E39">
-        <v>13.75409291039919</v>
-      </c>
-      <c r="F39">
-        <v>17.35686430276727</v>
-      </c>
-      <c r="G39">
         <v>23.84751995426306</v>
       </c>
     </row>
